--- a/src/test/resources/com/gojek/xls/SignIn And Register Suite.xlsx
+++ b/src/test/resources/com/gojek/xls/SignIn And Register Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -66,18 +66,9 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>Gopi</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
     <t>Gaurav</t>
   </si>
   <si>
-    <t>Arora</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -105,13 +96,16 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>sharma.gopi68@gmail.com</t>
-  </si>
-  <si>
-    <t>sharma.gopi69@gmail.com</t>
+    <t>arora.gaurav74@gmail.com</t>
+  </si>
+  <si>
+    <t>arora.gaurav75@gmail.com</t>
+  </si>
+  <si>
+    <t>Arora74</t>
+  </si>
+  <si>
+    <t>Arora75</t>
   </si>
 </sst>
 </file>
@@ -519,7 +513,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,31 +548,31 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -592,7 +586,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +633,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
@@ -648,31 +642,29 @@
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6">
-        <v>1234567892</v>
+        <v>1234567898</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -681,26 +673,24 @@
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1234567899</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1234567893</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
   </sheetData>
@@ -718,7 +708,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -753,7 +743,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
@@ -762,19 +752,17 @@
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -783,14 +771,12 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
   </sheetData>
